--- a/01-beginner/069-hands-on-02.xlsx
+++ b/01-beginner/069-hands-on-02.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13013"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13013" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="start with this" sheetId="3" r:id="rId1"/>
+    <sheet name="live" sheetId="2" r:id="rId2"/>
+    <sheet name="make it look like this" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -71,6 +73,498 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>82549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB79E60B-96D1-40FF-80CA-5D250EEED41F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3419475" y="1168399"/>
+          <a:ext cx="8715375" cy="5810250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>126206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60C7574-6F52-4CB4-936B-B533EAE47EE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020299" y="2116931"/>
+          <a:ext cx="7610475" cy="5707856"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>397667</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E5374F4-FCFF-43C3-9DDA-310E79C92528}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="628650"/>
+          <a:ext cx="5122067" cy="3414711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>126206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB77FA2-B1FB-4B2A-9882-FF7A61285A30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020299" y="2116931"/>
+          <a:ext cx="7610475" cy="5707856"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>82549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD6E8888-780C-41DC-A319-53C6D1076614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3419475" y="1168399"/>
+          <a:ext cx="8715375" cy="5810250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>397667</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA735D30-DC2A-4B7D-8780-422E57DD4369}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="628650"/>
+          <a:ext cx="5122067" cy="3414711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>126206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ED0D685-F37E-49DC-A4B2-F1EC451E1D65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020299" y="2116931"/>
+          <a:ext cx="7610475" cy="5707856"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>82549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D83F0EC3-61AB-469E-861D-8AB04D4C7287}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3419475" y="1168399"/>
+          <a:ext cx="8715375" cy="5810250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>397667</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6137867D-E608-4C5C-A827-2230FA41CB76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="628650"/>
+          <a:ext cx="5122067" cy="3414711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,13 +864,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>